--- a/medicine/Mort/Cimetière_de_la_peste/Cimetière_de_la_peste.xlsx
+++ b/medicine/Mort/Cimetière_de_la_peste/Cimetière_de_la_peste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_peste</t>
+          <t>Cimetière_de_la_peste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la peste était un lieu d'inhumation aménagé à partir du Moyen Âge à l'écart des centres d'habitation pour enterrer rapidement les victimes d'épidémies, notamment celles de la peste. Il complétait ainsi généralement le cimetière paroissial, où les défunts étaient généralement enterrés lors d'une cérémonie religieuse.
 Pendant la durée de telles épidémies, les victimes étaient souvent enterrées rapidement et sans aucune cérémonie, parfois dans des fosses communes. Ce n'est qu'après la fin de l'épidémie que des cérémonies religieuses communes à toutes les personnes enterrées étaient souvent organisées.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_peste</t>
+          <t>Cimetière_de_la_peste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,20 +528,161 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Allemagne
-Ancien cimetière du Sud
-France
-Cimetière des Pestiférés de Bouligney[1].
+          <t>Allemagne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ancien cimetière du Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_peste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_peste</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière des Pestiférés de Bouligney.
 Cimetière des Pestiférés de la Chapelle-des-Bois
 Cimetière des Pestiférés de Marchemaisons
-Cimetière des Pestiférés de Recologne (Doubs)[2]
-Russie
-Cimetière Vagankovo
-Suisse
-Cimetière des Pestiférés du Boéchet[3],[4]
-Cimetière des Rois
-Tchéquie
-Cimetière de la peste de Žďár nad Sázavou
+Cimetière des Pestiférés de Recologne (Doubs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_peste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_peste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière Vagankovo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_peste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_peste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cimetière des Pestiférés du Boéchet,
+Cimetière des Rois</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_la_peste</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_la_peste</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tchéquie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cimetière de la peste de Žďár nad Sázavou
 Cimetière juif de Žižkov</t>
         </is>
       </c>
